--- a/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F5C567-EB6A-4D53-9C26-4CCABE7F29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F00443-E3DE-4F66-9187-CE67D8CE76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE85D184-E5C6-434D-BBE7-88FCC672440D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60D1C1D1-673E-4D0D-AA27-461CEFF9F1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="316">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -83,10 +83,10 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -95,7 +95,7 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
@@ -107,817 +107,808 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>69,41%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>9,8%</t>
@@ -926,25 +917,22 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>47,1%</t>
@@ -953,46 +941,46 @@
     <t>48,5%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1407,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75CA7C5-9DA8-4A14-8F37-AA9D583EB69C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7990DC8-6948-4A49-82A6-6A23470AA98B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,13 +2186,13 @@
         <v>11513</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2213,13 +2201,13 @@
         <v>18752</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2228,13 +2216,13 @@
         <v>30265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2237,13 @@
         <v>27192</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -2264,13 +2252,13 @@
         <v>37947</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -2279,13 +2267,13 @@
         <v>65139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2288,13 @@
         <v>231362</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -2315,13 +2303,13 @@
         <v>276480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>660</v>
@@ -2330,13 +2318,13 @@
         <v>507842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2339,13 @@
         <v>276524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -2366,13 +2354,13 @@
         <v>247028</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>598</v>
@@ -2381,13 +2369,13 @@
         <v>523552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2431,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2455,13 +2443,13 @@
         <v>15553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2470,13 +2458,13 @@
         <v>8666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2485,13 +2473,13 @@
         <v>24220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2494,13 @@
         <v>26680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -2521,13 +2509,13 @@
         <v>26433</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -2536,13 +2524,13 @@
         <v>53113</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2545,13 @@
         <v>47114</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -2572,13 +2560,13 @@
         <v>72388</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -2587,13 +2575,13 @@
         <v>119503</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2596,13 @@
         <v>309890</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>580</v>
@@ -2623,13 +2611,13 @@
         <v>363106</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>906</v>
@@ -2638,13 +2626,13 @@
         <v>672996</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2647,13 @@
         <v>323718</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>396</v>
@@ -2674,13 +2662,13 @@
         <v>275505</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>649</v>
@@ -2689,13 +2677,13 @@
         <v>599223</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2739,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2766,10 +2754,10 @@
         <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2778,13 +2766,13 @@
         <v>12013</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -2793,13 +2781,13 @@
         <v>19293</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2802,13 @@
         <v>25541</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -2829,13 +2817,13 @@
         <v>27159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -2844,13 +2832,13 @@
         <v>52700</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2853,13 @@
         <v>75980</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>154</v>
@@ -2880,13 +2868,13 @@
         <v>96909</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>234</v>
@@ -2895,13 +2883,13 @@
         <v>172889</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2904,13 @@
         <v>309225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>527</v>
@@ -2931,13 +2919,13 @@
         <v>303405</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>885</v>
@@ -2946,13 +2934,13 @@
         <v>612630</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2955,13 @@
         <v>181060</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>255</v>
@@ -2982,13 +2970,13 @@
         <v>154835</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>444</v>
@@ -2997,13 +2985,13 @@
         <v>335895</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,7 +3047,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3071,13 +3059,13 @@
         <v>5948</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -3086,13 +3074,13 @@
         <v>13971</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -3101,13 +3089,13 @@
         <v>19919</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3110,13 @@
         <v>28573</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>120</v>
@@ -3137,13 +3125,13 @@
         <v>67815</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -3152,13 +3140,13 @@
         <v>96388</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3161,13 @@
         <v>101507</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>328</v>
@@ -3188,13 +3176,13 @@
         <v>172913</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>483</v>
@@ -3203,13 +3191,13 @@
         <v>274420</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3212,13 @@
         <v>356359</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>850</v>
@@ -3239,13 +3227,13 @@
         <v>558702</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>1373</v>
@@ -3254,13 +3242,13 @@
         <v>915061</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3263,13 @@
         <v>203397</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>376</v>
@@ -3290,13 +3278,13 @@
         <v>207200</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>671</v>
@@ -3305,13 +3293,13 @@
         <v>410597</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,10 +3370,10 @@
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>69</v>
@@ -3394,13 +3382,13 @@
         <v>51372</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -3409,13 +3397,13 @@
         <v>93626</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3418,13 @@
         <v>101722</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>250</v>
@@ -3445,13 +3433,13 @@
         <v>162636</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>364</v>
@@ -3460,13 +3448,13 @@
         <v>264359</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3469,13 @@
         <v>296632</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>682</v>
@@ -3496,13 +3484,13 @@
         <v>429733</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>1023</v>
@@ -3511,13 +3499,13 @@
         <v>726365</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3520,13 @@
         <v>1525335</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>2668</v>
@@ -3547,13 +3535,13 @@
         <v>1842116</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
         <v>4303</v>
@@ -3562,13 +3550,13 @@
         <v>3367451</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3571,13 @@
         <v>1415207</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>1681</v>
@@ -3598,13 +3586,13 @@
         <v>1312174</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M44" s="7">
         <v>2922</v>
@@ -3613,13 +3601,13 @@
         <v>2727381</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3663,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F00443-E3DE-4F66-9187-CE67D8CE76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E55DBEF-D5B0-4F0B-9116-C4CD9DEF6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60D1C1D1-673E-4D0D-AA27-461CEFF9F1D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F19B8BC-8E5B-4C95-9BD4-35B2FE3F851F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7990DC8-6948-4A49-82A6-6A23470AA98B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724230E7-6C03-4EF3-9958-6A410572A648}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E55DBEF-D5B0-4F0B-9116-C4CD9DEF6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{696BF6A1-FD4A-4C45-8EBF-437300913FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F19B8BC-8E5B-4C95-9BD4-35B2FE3F851F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2A6736A-E2E1-4E87-B6D0-E021974980E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="320">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -83,10 +83,10 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -95,7 +95,7 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
@@ -107,16 +107,16 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -125,28 +125,28 @@
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>De acuerdo</t>
@@ -155,784 +155,796 @@
     <t>40,72%</t>
   </si>
   <si>
-    <t>32,94%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>42,75%</t>
   </si>
   <si>
     <t>47,1%</t>
@@ -941,46 +953,46 @@
     <t>48,5%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1395,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724230E7-6C03-4EF3-9958-6A410572A648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97369643-E0AF-44A6-8D84-201977017177}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2186,13 +2198,13 @@
         <v>11513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2201,13 +2213,13 @@
         <v>18752</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2216,13 +2228,13 @@
         <v>30265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2249,13 @@
         <v>27192</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -2252,13 +2264,13 @@
         <v>37947</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -2267,13 +2279,13 @@
         <v>65139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2300,13 @@
         <v>231362</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -2303,13 +2315,13 @@
         <v>276480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>660</v>
@@ -2318,13 +2330,13 @@
         <v>507842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2351,13 @@
         <v>276524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -2354,13 +2366,13 @@
         <v>247028</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>598</v>
@@ -2369,13 +2381,13 @@
         <v>523552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,7 +2443,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2443,13 +2455,13 @@
         <v>15553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2458,13 +2470,13 @@
         <v>8666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2473,13 +2485,13 @@
         <v>24220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2506,13 @@
         <v>26680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -2509,13 +2521,13 @@
         <v>26433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -2524,13 +2536,13 @@
         <v>53113</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2557,13 @@
         <v>47114</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -2560,13 +2572,13 @@
         <v>72388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -2575,13 +2587,13 @@
         <v>119503</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2608,13 @@
         <v>309890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>580</v>
@@ -2611,13 +2623,13 @@
         <v>363106</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>906</v>
@@ -2626,13 +2638,13 @@
         <v>672996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2659,13 @@
         <v>323718</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>396</v>
@@ -2662,13 +2674,13 @@
         <v>275505</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>649</v>
@@ -2677,13 +2689,13 @@
         <v>599223</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2751,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2754,10 +2766,10 @@
         <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2766,13 +2778,13 @@
         <v>12013</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -2781,13 +2793,13 @@
         <v>19293</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2814,13 @@
         <v>25541</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -2817,13 +2829,13 @@
         <v>27159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -2832,13 +2844,13 @@
         <v>52700</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2865,13 @@
         <v>75980</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>154</v>
@@ -2868,13 +2880,13 @@
         <v>96909</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>234</v>
@@ -2883,13 +2895,13 @@
         <v>172889</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2916,13 @@
         <v>309225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>527</v>
@@ -2919,13 +2931,13 @@
         <v>303405</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>885</v>
@@ -2934,13 +2946,13 @@
         <v>612630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2967,13 @@
         <v>181060</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>255</v>
@@ -2970,13 +2982,13 @@
         <v>154835</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>444</v>
@@ -2985,13 +2997,13 @@
         <v>335895</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3059,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3059,13 +3071,13 @@
         <v>5948</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -3074,13 +3086,13 @@
         <v>13971</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -3089,13 +3101,13 @@
         <v>19919</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3122,13 @@
         <v>28573</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="H35" s="7">
         <v>120</v>
@@ -3125,13 +3137,13 @@
         <v>67815</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -3140,13 +3152,13 @@
         <v>96388</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3173,13 @@
         <v>101507</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>328</v>
@@ -3176,13 +3188,13 @@
         <v>172913</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>483</v>
@@ -3191,13 +3203,13 @@
         <v>274420</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3224,13 @@
         <v>356359</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>850</v>
@@ -3227,13 +3239,13 @@
         <v>558702</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>1373</v>
@@ -3242,13 +3254,13 @@
         <v>915061</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3275,13 @@
         <v>203397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>376</v>
@@ -3278,13 +3290,13 @@
         <v>207200</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>671</v>
@@ -3293,13 +3305,13 @@
         <v>410597</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,10 +3382,10 @@
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>69</v>
@@ -3382,13 +3394,13 @@
         <v>51372</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -3397,13 +3409,13 @@
         <v>93626</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3430,13 @@
         <v>101722</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="H41" s="7">
         <v>250</v>
@@ -3433,13 +3445,13 @@
         <v>162636</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>364</v>
@@ -3448,13 +3460,13 @@
         <v>264359</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3481,13 @@
         <v>296632</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>682</v>
@@ -3484,13 +3496,13 @@
         <v>429733</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>1023</v>
@@ -3499,13 +3511,13 @@
         <v>726365</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3532,13 @@
         <v>1525335</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>2668</v>
@@ -3535,13 +3547,13 @@
         <v>1842116</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M43" s="7">
         <v>4303</v>
@@ -3550,13 +3562,13 @@
         <v>3367451</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3583,13 @@
         <v>1415207</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>1681</v>
@@ -3586,13 +3598,13 @@
         <v>1312174</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>2922</v>
@@ -3601,13 +3613,13 @@
         <v>2727381</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3675,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696BF6A1-FD4A-4C45-8EBF-437300913FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BFA6EF4-A33B-4C63-B2E9-AB5BECA4DE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2A6736A-E2E1-4E87-B6D0-E021974980E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5C743B6-14E1-456E-BCBD-591797980FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="358">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Muy en desacuerdo</t>
@@ -80,919 +80,1033 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>33,62%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1407,8 +1521,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97369643-E0AF-44A6-8D84-201977017177}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E70C6D-1825-4A65-9B9F-EA57CA5A2878}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1543,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>9179</v>
+        <v>7838</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1558,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>9179</v>
+        <v>7838</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1594,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>8259</v>
+        <v>7175</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1609,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>8259</v>
+        <v>7175</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1618,160 +1732,160 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>14187</v>
+        <v>13497</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>31299</v>
+        <v>26091</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>45485</v>
+        <v>39588</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>153809</v>
+        <v>176970</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>126655</v>
+        <v>115818</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
       </c>
       <c r="N7" s="7">
-        <v>280465</v>
+        <v>292788</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>209683</v>
+        <v>209519</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
       </c>
       <c r="I8" s="7">
-        <v>179564</v>
+        <v>156279</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>200</v>
       </c>
       <c r="N8" s="7">
-        <v>389247</v>
+        <v>365798</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,51 +1897,51 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1836,46 +1950,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2811</v>
+        <v>2483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>4274</v>
+        <v>3971</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>7085</v>
+        <v>6454</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,199 +2001,199 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>9416</v>
+        <v>9996</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>14218</v>
+        <v>12232</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>23634</v>
+        <v>22228</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>30653</v>
+        <v>30175</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>18277</v>
+        <v>16098</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>48929</v>
+        <v>46273</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>164690</v>
+        <v>168077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>213767</v>
+        <v>202702</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
       </c>
       <c r="N13" s="7">
-        <v>378458</v>
+        <v>370779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>148</v>
       </c>
       <c r="D14" s="7">
-        <v>220826</v>
+        <v>212816</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>248041</v>
+        <v>276502</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
       </c>
       <c r="N14" s="7">
-        <v>468867</v>
+        <v>489318</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,51 +2205,51 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>460</v>
       </c>
       <c r="I15" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>762</v>
       </c>
       <c r="N15" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2144,46 +2258,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>10662</v>
+        <v>10015</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>3269</v>
+        <v>3030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>13930</v>
+        <v>13045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,199 +2309,199 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>11513</v>
+        <v>10454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>18752</v>
+        <v>17203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>30265</v>
+        <v>27657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>27192</v>
+        <v>25961</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
       </c>
       <c r="I18" s="7">
-        <v>37947</v>
+        <v>34564</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
       </c>
       <c r="N18" s="7">
-        <v>65139</v>
+        <v>60526</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>239</v>
       </c>
       <c r="D19" s="7">
-        <v>231362</v>
+        <v>227539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
       </c>
       <c r="I19" s="7">
-        <v>276480</v>
+        <v>259986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>660</v>
       </c>
       <c r="N19" s="7">
-        <v>507842</v>
+        <v>487525</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>276524</v>
+        <v>262369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>247028</v>
+        <v>227685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>598</v>
       </c>
       <c r="N20" s="7">
-        <v>523552</v>
+        <v>490054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,51 +2513,51 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>846</v>
       </c>
       <c r="I21" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2452,46 +2566,46 @@
         <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>15553</v>
+        <v>14727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>8666</v>
+        <v>7963</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>24220</v>
+        <v>22690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,199 +2617,199 @@
         <v>25</v>
       </c>
       <c r="D23" s="7">
-        <v>26680</v>
+        <v>24134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
       </c>
       <c r="I23" s="7">
-        <v>26433</v>
+        <v>23668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>53113</v>
+        <v>47801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>47114</v>
+        <v>45096</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
       </c>
       <c r="I24" s="7">
-        <v>72388</v>
+        <v>65863</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
       </c>
       <c r="N24" s="7">
-        <v>119503</v>
+        <v>110959</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>326</v>
       </c>
       <c r="D25" s="7">
-        <v>309890</v>
+        <v>299022</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>580</v>
       </c>
       <c r="I25" s="7">
-        <v>363106</v>
+        <v>363424</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>906</v>
       </c>
       <c r="N25" s="7">
-        <v>672996</v>
+        <v>662445</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>253</v>
       </c>
       <c r="D26" s="7">
-        <v>323718</v>
+        <v>503808</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>396</v>
       </c>
       <c r="I26" s="7">
-        <v>275505</v>
+        <v>250857</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>649</v>
       </c>
       <c r="N26" s="7">
-        <v>599223</v>
+        <v>754666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,51 +2821,51 @@
         <v>664</v>
       </c>
       <c r="D27" s="7">
-        <v>722955</v>
+        <v>886787</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>1139</v>
       </c>
       <c r="I27" s="7">
-        <v>746099</v>
+        <v>711775</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1803</v>
       </c>
       <c r="N27" s="7">
-        <v>1469054</v>
+        <v>1598562</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2760,43 +2874,43 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>7281</v>
+        <v>6648</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>12013</v>
+        <v>10903</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
       </c>
       <c r="N28" s="7">
-        <v>19293</v>
+        <v>17551</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>21</v>
@@ -2811,199 +2925,199 @@
         <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>25541</v>
+        <v>23226</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>27159</v>
+        <v>24135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
       </c>
       <c r="N29" s="7">
-        <v>52700</v>
+        <v>47360</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>80</v>
       </c>
       <c r="D30" s="7">
-        <v>75980</v>
+        <v>69534</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>154</v>
       </c>
       <c r="I30" s="7">
-        <v>96909</v>
+        <v>87511</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>234</v>
       </c>
       <c r="N30" s="7">
-        <v>172889</v>
+        <v>157045</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>358</v>
       </c>
       <c r="D31" s="7">
-        <v>309225</v>
+        <v>292572</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>527</v>
       </c>
       <c r="I31" s="7">
-        <v>303405</v>
+        <v>280325</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>885</v>
       </c>
       <c r="N31" s="7">
-        <v>612630</v>
+        <v>572896</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>189</v>
       </c>
       <c r="D32" s="7">
-        <v>181060</v>
+        <v>168257</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>255</v>
       </c>
       <c r="I32" s="7">
-        <v>154835</v>
+        <v>142515</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>444</v>
       </c>
       <c r="N32" s="7">
-        <v>335895</v>
+        <v>310772</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,99 +3129,99 @@
         <v>662</v>
       </c>
       <c r="D33" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>998</v>
       </c>
       <c r="I33" s="7">
-        <v>594321</v>
+        <v>545388</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1660</v>
       </c>
       <c r="N33" s="7">
-        <v>1193407</v>
+        <v>1105624</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3872</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="7">
         <v>9</v>
       </c>
-      <c r="D34" s="7">
-        <v>5948</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="I34" s="7">
+        <v>4755</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M34" s="7">
+        <v>15</v>
+      </c>
+      <c r="N34" s="7">
+        <v>8628</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" s="7">
-        <v>26</v>
-      </c>
-      <c r="I34" s="7">
-        <v>13971</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M34" s="7">
-        <v>35</v>
-      </c>
-      <c r="N34" s="7">
-        <v>19919</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,202 +3230,202 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D35" s="7">
-        <v>28573</v>
+        <v>10834</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="7">
+        <v>45</v>
+      </c>
+      <c r="I35" s="7">
+        <v>22226</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="7">
+        <v>63</v>
+      </c>
+      <c r="N35" s="7">
+        <v>33060</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H35" s="7">
-        <v>120</v>
-      </c>
-      <c r="I35" s="7">
-        <v>67815</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M35" s="7">
-        <v>163</v>
-      </c>
-      <c r="N35" s="7">
-        <v>96388</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7">
-        <v>101507</v>
+        <v>48082</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="7">
+        <v>120</v>
+      </c>
+      <c r="I36" s="7">
+        <v>59231</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>198</v>
+      </c>
+      <c r="N36" s="7">
+        <v>107314</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="7">
-        <v>328</v>
-      </c>
-      <c r="I36" s="7">
-        <v>172913</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M36" s="7">
-        <v>483</v>
-      </c>
-      <c r="N36" s="7">
-        <v>274420</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>523</v>
+        <v>295</v>
       </c>
       <c r="D37" s="7">
-        <v>356359</v>
+        <v>191629</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="7">
+        <v>427</v>
+      </c>
+      <c r="I37" s="7">
+        <v>410220</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>722</v>
+      </c>
+      <c r="N37" s="7">
+        <v>601849</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="7">
-        <v>850</v>
-      </c>
-      <c r="I37" s="7">
-        <v>558702</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1373</v>
-      </c>
-      <c r="N37" s="7">
-        <v>915061</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>295</v>
+        <v>171</v>
       </c>
       <c r="D38" s="7">
-        <v>203397</v>
+        <v>112474</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="7">
+        <v>225</v>
+      </c>
+      <c r="I38" s="7">
+        <v>111393</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>396</v>
+      </c>
+      <c r="N38" s="7">
+        <v>223867</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H38" s="7">
-        <v>376</v>
-      </c>
-      <c r="I38" s="7">
-        <v>207200</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M38" s="7">
-        <v>671</v>
-      </c>
-      <c r="N38" s="7">
-        <v>410597</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,102 +3434,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D39" s="7">
-        <v>695784</v>
+        <v>366892</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>1700</v>
+        <v>826</v>
       </c>
       <c r="I39" s="7">
-        <v>1020601</v>
+        <v>607826</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>2725</v>
+        <v>1394</v>
       </c>
       <c r="N39" s="7">
-        <v>1716385</v>
+        <v>974718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>42255</v>
+        <v>1665</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="7">
         <v>17</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="I40" s="7">
+        <v>7826</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M40" s="7">
+        <v>20</v>
+      </c>
+      <c r="N40" s="7">
+        <v>9490</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H40" s="7">
-        <v>69</v>
-      </c>
-      <c r="I40" s="7">
-        <v>51372</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M40" s="7">
-        <v>109</v>
-      </c>
-      <c r="N40" s="7">
-        <v>93626</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,202 +3538,202 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="D41" s="7">
-        <v>101722</v>
+        <v>14715</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="7">
+        <v>75</v>
+      </c>
+      <c r="I41" s="7">
+        <v>37068</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>100</v>
+      </c>
+      <c r="N41" s="7">
+        <v>51783</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="7">
-        <v>250</v>
-      </c>
-      <c r="I41" s="7">
-        <v>162636</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M41" s="7">
-        <v>364</v>
-      </c>
-      <c r="N41" s="7">
-        <v>264359</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="D42" s="7">
-        <v>296632</v>
+        <v>44519</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="7">
+        <v>208</v>
+      </c>
+      <c r="I42" s="7">
+        <v>96405</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>285</v>
+      </c>
+      <c r="N42" s="7">
+        <v>140924</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H42" s="7">
-        <v>682</v>
-      </c>
-      <c r="I42" s="7">
-        <v>429733</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M42" s="7">
-        <v>1023</v>
-      </c>
-      <c r="N42" s="7">
-        <v>726365</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
-        <v>1635</v>
+        <v>228</v>
       </c>
       <c r="D43" s="7">
-        <v>1525335</v>
+        <v>142989</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" s="7">
+        <v>423</v>
+      </c>
+      <c r="I43" s="7">
+        <v>203112</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>651</v>
+      </c>
+      <c r="N43" s="7">
+        <v>346100</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H43" s="7">
-        <v>2668</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1842116</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M43" s="7">
-        <v>4303</v>
-      </c>
-      <c r="N43" s="7">
-        <v>3367451</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>1241</v>
+        <v>124</v>
       </c>
       <c r="D44" s="7">
-        <v>1415207</v>
+        <v>78278</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H44" s="7">
+        <v>151</v>
+      </c>
+      <c r="I44" s="7">
+        <v>76832</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>275</v>
+      </c>
+      <c r="N44" s="7">
+        <v>155109</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H44" s="7">
-        <v>1681</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1312174</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M44" s="7">
-        <v>2922</v>
-      </c>
-      <c r="N44" s="7">
-        <v>2727381</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,63 +3742,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>457</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282165</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>874</v>
+      </c>
+      <c r="I45" s="7">
+        <v>421242</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1331</v>
+      </c>
+      <c r="N45" s="7">
+        <v>703407</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7">
+        <v>39411</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H46" s="7">
+        <v>69</v>
+      </c>
+      <c r="I46" s="7">
+        <v>46285</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M46" s="7">
+        <v>109</v>
+      </c>
+      <c r="N46" s="7">
+        <v>85695</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>114</v>
+      </c>
+      <c r="D47" s="7">
+        <v>93358</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" s="7">
+        <v>250</v>
+      </c>
+      <c r="I47" s="7">
+        <v>143707</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" s="7">
+        <v>364</v>
+      </c>
+      <c r="N47" s="7">
+        <v>237065</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="7">
+        <v>341</v>
+      </c>
+      <c r="D48" s="7">
+        <v>276865</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H48" s="7">
+        <v>682</v>
+      </c>
+      <c r="I48" s="7">
+        <v>385763</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1023</v>
+      </c>
+      <c r="N48" s="7">
+        <v>662629</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1635</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1498798</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2668</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1835584</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" s="7">
+        <v>4303</v>
+      </c>
+      <c r="N49" s="7">
+        <v>3334382</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1241</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1547522</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1681</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1242062</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2922</v>
+      </c>
+      <c r="N50" s="7">
+        <v>2789584</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3371</v>
       </c>
-      <c r="D45" s="7">
-        <v>3381152</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3455954</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
         <v>5350</v>
       </c>
-      <c r="I45" s="7">
-        <v>3798030</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3653401</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
         <v>8721</v>
       </c>
-      <c r="N45" s="7">
-        <v>7179182</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="N51" s="7">
+        <v>7109355</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
